--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This CH ELM concept map shows which leading codes have to be completed by an additional code. The target code shows the URL of the value set from which the completing codes for the expecting specimen must come from.</t>
+    <t>This CH ELM concept map shows which leading codes have to be completed by an additional code to specify the specimen. The target code shows the URL of the value set containing the permitted codes for the specimen specification.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,34 +123,136 @@
     <t>http://fhir.ch/ig/ch-elm/CodeSystem/ch-elm-results-completion-vs</t>
   </si>
   <si>
+    <t>104375-1</t>
+  </si>
+  <si>
+    <t>Corynebacterium ulcerans DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>related-to</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-complete-spec</t>
+  </si>
+  <si>
+    <t>104376-9</t>
+  </si>
+  <si>
+    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>16134-9</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sterile-spec</t>
+  </si>
+  <si>
+    <t>16676-9</t>
+  </si>
+  <si>
+    <t>Corynebacterium diphtheriae [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>21613-5</t>
   </si>
   <si>
     <t>Chlamydia trachomatis DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>related-to</t>
-  </si>
-  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-geni-spec</t>
   </si>
   <si>
+    <t>24102-6</t>
+  </si>
+  <si>
+    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
+  </si>
+  <si>
+    <t>29907-3</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae B DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>31777-6</t>
   </si>
   <si>
     <t>Chlamydia trachomatis Ag [Presence] in Specimen</t>
   </si>
   <si>
+    <t>31912-9</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31969-9</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>38353-9</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>43304-5</t>
   </si>
   <si>
     <t>Chlamydia trachomatis rRNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>49671-1</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>49672-9</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>58473-0</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae serotype DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>61366-1</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>6349-5</t>
   </si>
   <si>
     <t>Chlamydia trachomatis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6600-1</t>
+  </si>
+  <si>
+    <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>67561-1</t>
+  </si>
+  <si>
+    <t>Corynebacterium diphtheriae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>69410-9</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae [Identifier] in Specimen by Organism specific culture</t>
   </si>
 </sst>
 </file>
@@ -427,7 +529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -508,16 +610,16 @@
         <v>38</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>38</v>
@@ -526,6 +628,246 @@
         <v>39</v>
       </c>
       <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,39 +123,18 @@
     <t>http://fhir.ch/ig/ch-elm/CodeSystem/ch-elm-results-completion-vs</t>
   </si>
   <si>
-    <t>104375-1</t>
-  </si>
-  <si>
-    <t>Corynebacterium ulcerans DNA [Presence] in Specimen by NAA with probe detection</t>
+    <t>16134-9</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
     <t>related-to</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-complete-spec</t>
-  </si>
-  <si>
-    <t>104376-9</t>
-  </si>
-  <si>
-    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>16134-9</t>
-  </si>
-  <si>
-    <t>Neisseria meningitidis [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-sterile-spec</t>
   </si>
   <si>
-    <t>16676-9</t>
-  </si>
-  <si>
-    <t>Corynebacterium diphtheriae [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
     <t>21613-5</t>
   </si>
   <si>
@@ -165,12 +144,6 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-geni-spec</t>
   </si>
   <si>
-    <t>24102-6</t>
-  </si>
-  <si>
-    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
-  </si>
-  <si>
     <t>29907-3</t>
   </si>
   <si>
@@ -231,6 +204,12 @@
     <t>Haemophilus influenzae DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>61369-5</t>
+  </si>
+  <si>
+    <t>Listeria monocytogenes DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>6349-5</t>
   </si>
   <si>
@@ -243,10 +222,10 @@
     <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
-    <t>67561-1</t>
-  </si>
-  <si>
-    <t>Corynebacterium diphtheriae DNA [Presence] in Specimen by NAA with probe detection</t>
+    <t>6609-2</t>
+  </si>
+  <si>
+    <t>Listeria sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
     <t>69410-9</t>
@@ -529,7 +508,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -595,22 +574,22 @@
         <v>38</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -625,7 +604,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -640,16 +619,16 @@
         <v>38</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>38</v>
@@ -661,213 +640,168 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="C9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="C10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="C11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>59</v>
-      </c>
       <c r="C12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>61</v>
-      </c>
       <c r="C13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>63</v>
-      </c>
       <c r="C14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>65</v>
-      </c>
       <c r="C15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="C16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>69</v>
-      </c>
       <c r="C17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="C18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="C19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="E22" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Listeria monocytogenes DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-lis-spec</t>
   </si>
   <si>
     <t>6349-5</t>
@@ -739,16 +742,16 @@
         <v>38</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>38</v>
@@ -760,10 +763,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>38</v>
@@ -775,25 +778,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>38</v>

--- a/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
+++ b/ig/ch-elm/ch-elm-expecting-specimen-specification-to-results-completion-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
